--- a/data/financial_statements/sofp/FMC.xlsx
+++ b/data/financial_statements/sofp/FMC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -493,141 +604,141 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>364000000</v>
+        <v>363800000</v>
       </c>
       <c r="C2">
-        <v>592000000</v>
+        <v>591500000</v>
       </c>
       <c r="D2">
-        <v>365000000</v>
+        <v>365100000</v>
       </c>
       <c r="E2">
-        <v>517000000</v>
+        <v>516800000</v>
       </c>
       <c r="F2">
         <v>341000000</v>
@@ -736,23 +847,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>2600000000</v>
+        <v>2599900000</v>
       </c>
       <c r="C3">
-        <v>2885000000</v>
+        <v>2885100000</v>
       </c>
       <c r="D3">
-        <v>2869000000</v>
+        <v>2868600000</v>
       </c>
       <c r="E3">
-        <v>2810000000</v>
+        <v>2583700000</v>
       </c>
       <c r="F3">
-        <v>2504000000</v>
+        <v>2503500000</v>
       </c>
       <c r="G3">
         <v>2627300000</v>
@@ -858,23 +969,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1732000000</v>
+        <v>1731500000</v>
       </c>
       <c r="C4">
-        <v>1590000000</v>
+        <v>1590400000</v>
       </c>
       <c r="D4">
-        <v>1591000000</v>
+        <v>1590700000</v>
       </c>
       <c r="E4">
-        <v>1406000000</v>
+        <v>1521900000</v>
       </c>
       <c r="F4">
-        <v>1451000000</v>
+        <v>1450500000</v>
       </c>
       <c r="G4">
         <v>1398100000</v>
@@ -980,8 +1091,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>415000000</v>
@@ -1021,23 +1132,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>5111000000</v>
+        <v>5110600000</v>
       </c>
       <c r="C6">
-        <v>5517000000</v>
+        <v>5517400000</v>
       </c>
       <c r="D6">
-        <v>5298000000</v>
+        <v>5298400000</v>
       </c>
       <c r="E6">
-        <v>4938000000</v>
+        <v>5053800000</v>
       </c>
       <c r="F6">
-        <v>4728000000</v>
+        <v>4728200000</v>
       </c>
       <c r="G6">
         <v>5197300000</v>
@@ -1143,23 +1254,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>914000000</v>
+        <v>789600000</v>
       </c>
       <c r="C7">
-        <v>926000000</v>
+        <v>797400000</v>
       </c>
       <c r="D7">
-        <v>939000000</v>
+        <v>804100000</v>
       </c>
       <c r="E7">
-        <v>952000000</v>
+        <v>817000000</v>
       </c>
       <c r="F7">
-        <v>923000000</v>
+        <v>782200000</v>
       </c>
       <c r="G7">
         <v>776700000</v>
@@ -1265,23 +1376,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>47000000</v>
+        <v>10300000</v>
       </c>
       <c r="C8">
-        <v>28000000</v>
+        <v>10100000</v>
       </c>
       <c r="D8">
-        <v>31000000</v>
+        <v>10200000</v>
       </c>
       <c r="E8">
-        <v>30000000</v>
+        <v>9200000</v>
       </c>
       <c r="F8">
-        <v>30000000</v>
+        <v>8600000</v>
       </c>
       <c r="G8">
         <v>6600000</v>
@@ -1387,23 +1498,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>4047000000</v>
+        <v>4046800000</v>
       </c>
       <c r="C9">
-        <v>3902000000</v>
+        <v>3902200000</v>
       </c>
       <c r="D9">
-        <v>3955000000</v>
+        <v>3954600000</v>
       </c>
       <c r="E9">
-        <v>4129000000</v>
+        <v>3985200000</v>
       </c>
       <c r="F9">
-        <v>4011000000</v>
+        <v>4010500000</v>
       </c>
       <c r="G9">
         <v>4040400000</v>
@@ -1509,8 +1620,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>184100000</v>
@@ -1631,23 +1742,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>398000000</v>
+        <v>623300000</v>
       </c>
       <c r="C11">
-        <v>388000000</v>
+        <v>602200000</v>
       </c>
       <c r="D11">
-        <v>391000000</v>
+        <v>614100000</v>
       </c>
       <c r="E11">
-        <v>254000000</v>
+        <v>613800000</v>
       </c>
       <c r="F11">
-        <v>436000000</v>
+        <v>667300000</v>
       </c>
       <c r="G11">
         <v>693200000</v>
@@ -1753,8 +1864,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>5654100000</v>
@@ -1875,23 +1986,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>10765000000</v>
+        <v>10764700000</v>
       </c>
       <c r="C13">
-        <v>11044000000</v>
+        <v>11044200000</v>
       </c>
       <c r="D13">
-        <v>10905000000</v>
+        <v>10904800000</v>
       </c>
       <c r="E13">
-        <v>10581000000</v>
+        <v>10673100000</v>
       </c>
       <c r="F13">
-        <v>10410000000</v>
+        <v>10410200000</v>
       </c>
       <c r="G13">
         <v>10942100000</v>
@@ -1997,23 +2108,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>1046000000</v>
+        <v>1045700000</v>
       </c>
       <c r="C14">
-        <v>1122000000</v>
+        <v>1122200000</v>
       </c>
       <c r="D14">
-        <v>1057000000</v>
+        <v>1057400000</v>
       </c>
       <c r="E14">
         <v>1135000000</v>
       </c>
       <c r="F14">
-        <v>1101000000</v>
+        <v>1101400000</v>
       </c>
       <c r="G14">
         <v>1158000000</v>
@@ -2119,8 +2230,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>1473400000</v>
@@ -2241,23 +2352,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>849000000</v>
+        <v>826300000</v>
       </c>
       <c r="C16">
-        <v>1178000000</v>
+        <v>1155100000</v>
       </c>
       <c r="D16">
-        <v>1064000000</v>
+        <v>1040400000</v>
       </c>
       <c r="E16">
-        <v>464000000</v>
+        <v>440800000</v>
       </c>
       <c r="F16">
-        <v>786000000</v>
+        <v>762000000</v>
       </c>
       <c r="G16">
         <v>1185800000</v>
@@ -2363,8 +2474,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>99300000</v>
@@ -2485,23 +2596,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1638000000</v>
+        <v>184200000</v>
       </c>
       <c r="C18">
-        <v>1576000000</v>
+        <v>204900000</v>
       </c>
       <c r="D18">
-        <v>1614000000</v>
+        <v>261100000</v>
       </c>
       <c r="E18">
-        <v>1856000000</v>
+        <v>206200000</v>
       </c>
       <c r="F18">
-        <v>1432000000</v>
+        <v>155100000</v>
       </c>
       <c r="G18">
         <v>170000000</v>
@@ -2607,23 +2718,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>3632000000</v>
+        <v>3632200000</v>
       </c>
       <c r="C19">
-        <v>3986000000</v>
+        <v>3985700000</v>
       </c>
       <c r="D19">
-        <v>3829000000</v>
+        <v>3829300000</v>
       </c>
       <c r="E19">
-        <v>3520000000</v>
+        <v>3520300000</v>
       </c>
       <c r="F19">
-        <v>3428000000</v>
+        <v>3427600000</v>
       </c>
       <c r="G19">
         <v>3841500000</v>
@@ -2729,23 +2840,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>2860000000</v>
+        <v>2732500000</v>
       </c>
       <c r="C20">
-        <v>2864000000</v>
+        <v>2731700000</v>
       </c>
       <c r="D20">
-        <v>2872000000</v>
+        <v>2732400000</v>
       </c>
       <c r="E20">
-        <v>2872000000</v>
+        <v>2731700000</v>
       </c>
       <c r="F20">
-        <v>2776000000</v>
+        <v>2631700000</v>
       </c>
       <c r="G20">
         <v>2630800000</v>
@@ -2851,8 +2962,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>38800000</v>
@@ -2973,23 +3084,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>168000000</v>
+        <v>351700000</v>
       </c>
       <c r="C22">
-        <v>119000000</v>
+        <v>334000000</v>
       </c>
       <c r="D22">
-        <v>116000000</v>
+        <v>339200000</v>
       </c>
       <c r="E22">
-        <v>124000000</v>
+        <v>342400000</v>
       </c>
       <c r="F22">
-        <v>132000000</v>
+        <v>345300000</v>
       </c>
       <c r="G22">
         <v>346800000</v>
@@ -3089,23 +3200,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>717000000</v>
+        <v>805900000</v>
       </c>
       <c r="C23">
-        <v>733000000</v>
+        <v>826000000</v>
       </c>
       <c r="D23">
-        <v>783000000</v>
+        <v>881500000</v>
       </c>
       <c r="E23">
-        <v>795000000</v>
+        <v>893200000</v>
       </c>
       <c r="F23">
-        <v>804000000</v>
+        <v>904400000</v>
       </c>
       <c r="G23">
         <v>943800000</v>
@@ -3211,8 +3322,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>3928900000</v>
@@ -3333,23 +3444,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>7561000000</v>
+        <v>7561100000</v>
       </c>
       <c r="C25">
-        <v>7917000000</v>
+        <v>7916900000</v>
       </c>
       <c r="D25">
-        <v>7823000000</v>
+        <v>7822600000</v>
       </c>
       <c r="E25">
-        <v>7529000000</v>
+        <v>7529400000</v>
       </c>
       <c r="F25">
-        <v>7353000000</v>
+        <v>7353200000</v>
       </c>
       <c r="G25">
         <v>7808000000</v>
@@ -3455,8 +3566,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>903300000</v>
@@ -3577,23 +3688,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>19000000</v>
+        <v>18600000</v>
       </c>
       <c r="C27">
-        <v>19000000</v>
+        <v>18600000</v>
       </c>
       <c r="D27">
-        <v>19000000</v>
+        <v>18600000</v>
       </c>
       <c r="E27">
-        <v>19000000</v>
+        <v>18600000</v>
       </c>
       <c r="F27">
-        <v>19000000</v>
+        <v>18600000</v>
       </c>
       <c r="G27">
         <v>18600000</v>
@@ -3699,23 +3810,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>5355000000</v>
+        <v>5354800000</v>
       </c>
       <c r="C28">
-        <v>5199000000</v>
+        <v>5199100000</v>
       </c>
       <c r="D28">
-        <v>5132000000</v>
+        <v>5131800000</v>
       </c>
       <c r="E28">
-        <v>4991000000</v>
+        <v>5092900000</v>
       </c>
       <c r="F28">
-        <v>4865000000</v>
+        <v>4864900000</v>
       </c>
       <c r="G28">
         <v>4767900000</v>
@@ -3821,8 +3932,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2546500000</v>
@@ -3943,23 +4054,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>3188000000</v>
+        <v>3203600000</v>
       </c>
       <c r="C30">
-        <v>3109000000</v>
+        <v>3127300000</v>
       </c>
       <c r="D30">
-        <v>3059000000</v>
+        <v>3082200000</v>
       </c>
       <c r="E30">
-        <v>3033000000</v>
+        <v>3143700000</v>
       </c>
       <c r="F30">
-        <v>3031000000</v>
+        <v>3057000000</v>
       </c>
       <c r="G30">
         <v>3134100000</v>
@@ -4065,23 +4176,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>3188000000</v>
+        <v>3203600000</v>
       </c>
       <c r="C31">
-        <v>3109000000</v>
+        <v>3127300000</v>
       </c>
       <c r="D31">
-        <v>3059000000</v>
+        <v>3082200000</v>
       </c>
       <c r="E31">
-        <v>3033000000</v>
+        <v>3143700000</v>
       </c>
       <c r="F31">
-        <v>3031000000</v>
+        <v>3057000000</v>
       </c>
       <c r="G31">
         <v>3134100000</v>
@@ -4187,8 +4298,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>10764700000</v>
@@ -4309,8 +4420,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>125966000</v>
@@ -4431,8 +4542,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>-843199700</v>
@@ -4553,23 +4664,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>3345000000</v>
+        <v>3195000000</v>
       </c>
       <c r="C35">
-        <v>3450000000</v>
+        <v>3295300000</v>
       </c>
       <c r="D35">
-        <v>3571000000</v>
+        <v>3407700000</v>
       </c>
       <c r="E35">
-        <v>2819000000</v>
+        <v>2655700000</v>
       </c>
       <c r="F35">
-        <v>3221000000</v>
+        <v>3052700000</v>
       </c>
       <c r="G35">
         <v>3088100000</v>
@@ -4675,23 +4786,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>3709000000</v>
+        <v>3558800000</v>
       </c>
       <c r="C36">
-        <v>4042000000</v>
+        <v>3886800000</v>
       </c>
       <c r="D36">
-        <v>3936000000</v>
+        <v>3772800000</v>
       </c>
       <c r="E36">
-        <v>3336000000</v>
+        <v>3172500000</v>
       </c>
       <c r="F36">
-        <v>3562000000</v>
+        <v>3393700000</v>
       </c>
       <c r="G36">
         <v>3816600000</v>
